--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.82188489188839</v>
+        <v>4.838602000000001</v>
       </c>
       <c r="H2">
-        <v>2.82188489188839</v>
+        <v>14.515806</v>
       </c>
       <c r="I2">
-        <v>0.02540874749408528</v>
+        <v>0.04159701547454875</v>
       </c>
       <c r="J2">
-        <v>0.02540874749408528</v>
+        <v>0.04159701547454875</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.1490928851155</v>
+        <v>29.57110033333333</v>
       </c>
       <c r="N2">
-        <v>26.1490928851155</v>
+        <v>88.713301</v>
       </c>
       <c r="O2">
-        <v>0.5161752668380152</v>
+        <v>0.5311523066901919</v>
       </c>
       <c r="P2">
-        <v>0.5161752668380152</v>
+        <v>0.5311523066901919</v>
       </c>
       <c r="Q2">
-        <v>73.78973014909363</v>
+        <v>143.0827852150674</v>
       </c>
       <c r="R2">
-        <v>73.78973014909363</v>
+        <v>1287.745066935606</v>
       </c>
       <c r="S2">
-        <v>0.01311536701777922</v>
+        <v>0.02209435072073417</v>
       </c>
       <c r="T2">
-        <v>0.01311536701777922</v>
+        <v>0.02209435072073417</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.82188489188839</v>
+        <v>4.838602000000001</v>
       </c>
       <c r="H3">
-        <v>2.82188489188839</v>
+        <v>14.515806</v>
       </c>
       <c r="I3">
-        <v>0.02540874749408528</v>
+        <v>0.04159701547454875</v>
       </c>
       <c r="J3">
-        <v>0.02540874749408528</v>
+        <v>0.04159701547454875</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.0935976295608</v>
+        <v>12.180337</v>
       </c>
       <c r="N3">
-        <v>12.0935976295608</v>
+        <v>36.541011</v>
       </c>
       <c r="O3">
-        <v>0.2387239974593314</v>
+        <v>0.2187816490048282</v>
       </c>
       <c r="P3">
-        <v>0.2387239974593314</v>
+        <v>0.2187816490048282</v>
       </c>
       <c r="Q3">
-        <v>34.12674043943487</v>
+        <v>58.93580296887401</v>
       </c>
       <c r="R3">
-        <v>34.12674043943487</v>
+        <v>530.4222267198661</v>
       </c>
       <c r="S3">
-        <v>0.006065677772222808</v>
+        <v>0.009100663639201131</v>
       </c>
       <c r="T3">
-        <v>0.006065677772222808</v>
+        <v>0.009100663639201131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.82188489188839</v>
+        <v>4.838602000000001</v>
       </c>
       <c r="H4">
-        <v>2.82188489188839</v>
+        <v>14.515806</v>
       </c>
       <c r="I4">
-        <v>0.02540874749408528</v>
+        <v>0.04159701547454875</v>
       </c>
       <c r="J4">
-        <v>0.02540874749408528</v>
+        <v>0.04159701547454875</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.4166389129027</v>
+        <v>13.92204833333333</v>
       </c>
       <c r="N4">
-        <v>12.4166389129027</v>
+        <v>41.76614499999999</v>
       </c>
       <c r="O4">
-        <v>0.2451007357026536</v>
+        <v>0.2500660443049799</v>
       </c>
       <c r="P4">
-        <v>0.2451007357026536</v>
+        <v>0.2500660443049799</v>
       </c>
       <c r="Q4">
-        <v>35.03832575635361</v>
+        <v>67.36325090976334</v>
       </c>
       <c r="R4">
-        <v>35.03832575635361</v>
+        <v>606.2692581878699</v>
       </c>
       <c r="S4">
-        <v>0.006227702704083258</v>
+        <v>0.01040200111461344</v>
       </c>
       <c r="T4">
-        <v>0.006227702704083258</v>
+        <v>0.01040200111461344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>105.877793866728</v>
+        <v>106.240761</v>
       </c>
       <c r="H5">
-        <v>105.877793866728</v>
+        <v>318.722283</v>
       </c>
       <c r="I5">
-        <v>0.9533422632948791</v>
+        <v>0.9133420313026024</v>
       </c>
       <c r="J5">
-        <v>0.9533422632948791</v>
+        <v>0.9133420313026024</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.1490928851155</v>
+        <v>29.57110033333333</v>
       </c>
       <c r="N5">
-        <v>26.1490928851155</v>
+        <v>88.713301</v>
       </c>
       <c r="O5">
-        <v>0.5161752668380152</v>
+        <v>0.5311523066901919</v>
       </c>
       <c r="P5">
-        <v>0.5161752668380152</v>
+        <v>0.5311523066901919</v>
       </c>
       <c r="Q5">
-        <v>2768.608266292183</v>
+        <v>3141.656203020687</v>
       </c>
       <c r="R5">
-        <v>2768.608266292183</v>
+        <v>28274.90582718618</v>
       </c>
       <c r="S5">
-        <v>0.4920916971441915</v>
+        <v>0.4851237267234827</v>
       </c>
       <c r="T5">
-        <v>0.4920916971441915</v>
+        <v>0.4851237267234827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>105.877793866728</v>
+        <v>106.240761</v>
       </c>
       <c r="H6">
-        <v>105.877793866728</v>
+        <v>318.722283</v>
       </c>
       <c r="I6">
-        <v>0.9533422632948791</v>
+        <v>0.9133420313026024</v>
       </c>
       <c r="J6">
-        <v>0.9533422632948791</v>
+        <v>0.9133420313026024</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.0935976295608</v>
+        <v>12.180337</v>
       </c>
       <c r="N6">
-        <v>12.0935976295608</v>
+        <v>36.541011</v>
       </c>
       <c r="O6">
-        <v>0.2387239974593314</v>
+        <v>0.2187816490048282</v>
       </c>
       <c r="P6">
-        <v>0.2387239974593314</v>
+        <v>0.2187816490048282</v>
       </c>
       <c r="Q6">
-        <v>1280.443436929789</v>
+        <v>1294.048272116457</v>
       </c>
       <c r="R6">
-        <v>1280.443436929789</v>
+        <v>11646.43444904811</v>
       </c>
       <c r="S6">
-        <v>0.22758567604068</v>
+        <v>0.1998224757138028</v>
       </c>
       <c r="T6">
-        <v>0.22758567604068</v>
+        <v>0.1998224757138028</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>105.877793866728</v>
+        <v>106.240761</v>
       </c>
       <c r="H7">
-        <v>105.877793866728</v>
+        <v>318.722283</v>
       </c>
       <c r="I7">
-        <v>0.9533422632948791</v>
+        <v>0.9133420313026024</v>
       </c>
       <c r="J7">
-        <v>0.9533422632948791</v>
+        <v>0.9133420313026024</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.4166389129027</v>
+        <v>13.92204833333333</v>
       </c>
       <c r="N7">
-        <v>12.4166389129027</v>
+        <v>41.76614499999999</v>
       </c>
       <c r="O7">
-        <v>0.2451007357026536</v>
+        <v>0.2500660443049799</v>
       </c>
       <c r="P7">
-        <v>0.2451007357026536</v>
+        <v>0.2500660443049799</v>
       </c>
       <c r="Q7">
-        <v>1314.646335337906</v>
+        <v>1479.089009612115</v>
       </c>
       <c r="R7">
-        <v>1314.646335337906</v>
+        <v>13311.80108650903</v>
       </c>
       <c r="S7">
-        <v>0.2336648901100077</v>
+        <v>0.2283958288653169</v>
       </c>
       <c r="T7">
-        <v>0.2336648901100077</v>
+        <v>0.2283958288653169</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.35990387312397</v>
+        <v>5.241530333333333</v>
       </c>
       <c r="H8">
-        <v>2.35990387312397</v>
+        <v>15.724591</v>
       </c>
       <c r="I8">
-        <v>0.02124898921103562</v>
+        <v>0.04506095322284893</v>
       </c>
       <c r="J8">
-        <v>0.02124898921103562</v>
+        <v>0.04506095322284893</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.1490928851155</v>
+        <v>29.57110033333333</v>
       </c>
       <c r="N8">
-        <v>26.1490928851155</v>
+        <v>88.713301</v>
       </c>
       <c r="O8">
-        <v>0.5161752668380152</v>
+        <v>0.5311523066901919</v>
       </c>
       <c r="P8">
-        <v>0.5161752668380152</v>
+        <v>0.5311523066901919</v>
       </c>
       <c r="Q8">
-        <v>61.70934557826252</v>
+        <v>154.9978193872101</v>
       </c>
       <c r="R8">
-        <v>61.70934557826252</v>
+        <v>1394.980374484891</v>
       </c>
       <c r="S8">
-        <v>0.01096820267604442</v>
+        <v>0.02393422924597505</v>
       </c>
       <c r="T8">
-        <v>0.01096820267604442</v>
+        <v>0.02393422924597505</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.35990387312397</v>
+        <v>5.241530333333333</v>
       </c>
       <c r="H9">
-        <v>2.35990387312397</v>
+        <v>15.724591</v>
       </c>
       <c r="I9">
-        <v>0.02124898921103562</v>
+        <v>0.04506095322284893</v>
       </c>
       <c r="J9">
-        <v>0.02124898921103562</v>
+        <v>0.04506095322284893</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.0935976295608</v>
+        <v>12.180337</v>
       </c>
       <c r="N9">
-        <v>12.0935976295608</v>
+        <v>36.541011</v>
       </c>
       <c r="O9">
-        <v>0.2387239974593314</v>
+        <v>0.2187816490048282</v>
       </c>
       <c r="P9">
-        <v>0.2387239974593314</v>
+        <v>0.2187816490048282</v>
       </c>
       <c r="Q9">
-        <v>28.5397278860034</v>
+        <v>63.84360585572234</v>
       </c>
       <c r="R9">
-        <v>28.5397278860034</v>
+        <v>574.5924527015011</v>
       </c>
       <c r="S9">
-        <v>0.005072643646428628</v>
+        <v>0.009858509651824318</v>
       </c>
       <c r="T9">
-        <v>0.005072643646428628</v>
+        <v>0.009858509651824318</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.35990387312397</v>
+        <v>5.241530333333333</v>
       </c>
       <c r="H10">
-        <v>2.35990387312397</v>
+        <v>15.724591</v>
       </c>
       <c r="I10">
-        <v>0.02124898921103562</v>
+        <v>0.04506095322284893</v>
       </c>
       <c r="J10">
-        <v>0.02124898921103562</v>
+        <v>0.04506095322284893</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.4166389129027</v>
+        <v>13.92204833333333</v>
       </c>
       <c r="N10">
-        <v>12.4166389129027</v>
+        <v>41.76614499999999</v>
       </c>
       <c r="O10">
-        <v>0.2451007357026536</v>
+        <v>0.2500660443049799</v>
       </c>
       <c r="P10">
-        <v>0.2451007357026536</v>
+        <v>0.2500660443049799</v>
       </c>
       <c r="Q10">
-        <v>29.30207426174088</v>
+        <v>72.97283864129943</v>
       </c>
       <c r="R10">
-        <v>29.30207426174088</v>
+        <v>656.755547771695</v>
       </c>
       <c r="S10">
-        <v>0.005208142888562579</v>
+        <v>0.01126821432504957</v>
       </c>
       <c r="T10">
-        <v>0.005208142888562579</v>
+        <v>0.01126821432504957</v>
       </c>
     </row>
   </sheetData>
